--- a/AH - Vereiste parameters.xlsx
+++ b/AH - Vereiste parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC4163BB-DB16-4F45-996C-D60E056030DE}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AC9FA13-0F8F-4B87-9499-7809A693DB8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="11424" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Categorie</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Plafondhoogte (mm)</t>
+  </si>
+  <si>
+    <t>Mechanical Equipment</t>
+  </si>
+  <si>
+    <t>TEST_serienummer</t>
+  </si>
+  <si>
+    <t>Serienummer</t>
   </si>
 </sst>
 </file>
@@ -121,10 +130,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,19 +449,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.15625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -487,6 +492,17 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/AH - Vereiste parameters.xlsx
+++ b/AH - Vereiste parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AC9FA13-0F8F-4B87-9499-7809A693DB8C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5AAD2E-EFDD-4FF5-9010-B04ECCA67215}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Categorie</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Serienummer</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Leverancier</t>
   </si>
 </sst>
 </file>
@@ -449,19 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.15625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -494,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -503,6 +509,17 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
